--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43205,6 +43205,41 @@
         <v>840900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1090600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,6 +43240,41 @@
         <v>1090600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>463700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43275,6 +43275,41 @@
         <v>463700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>595700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,41 @@
         <v>595700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>733700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43345,41 @@
         <v>733700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>626800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,41 @@
         <v>626800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1234600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,41 @@
         <v>1234600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>428700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43450,6 +43450,41 @@
         <v>428700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>586100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43485,6 +43485,41 @@
         <v>586100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1807900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43520,6 +43520,41 @@
         <v>1807900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3026700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>3026700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3370800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,41 @@
         <v>3370800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1653400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43625,6 +43625,76 @@
         <v>1653400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3898800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,76 @@
         <v>3898800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3299900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2150700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         <v>2150700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>721400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,41 @@
         <v>721400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1019200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43835,6 +43835,41 @@
         <v>1019200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>569100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43870,6 +43870,41 @@
         <v>569100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5442900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43905,6 +43905,76 @@
         <v>5442900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2621100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1478900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43975,6 +43975,41 @@
         <v>1478900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2213100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44010,6 +44010,41 @@
         <v>2213100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>6342800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2172"/>
+  <dimension ref="A1:I2173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76630,6 +76630,41 @@
         <v>6342800</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>6292400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2173"/>
+  <dimension ref="A1:I2174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76665,6 +76665,41 @@
         <v>6292400</v>
       </c>
     </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>5138200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2174"/>
+  <dimension ref="A1:I2175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76700,6 +76700,41 @@
         <v>5138200</v>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>4112300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2175"/>
+  <dimension ref="A1:I2176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76735,6 +76735,41 @@
         <v>4112300</v>
       </c>
     </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>3162200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2176"/>
+  <dimension ref="A1:I2177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76770,6 +76770,41 @@
         <v>3162200</v>
       </c>
     </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>5516700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2177"/>
+  <dimension ref="A1:I2178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76805,6 +76805,41 @@
         <v>5516700</v>
       </c>
     </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>2315500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2178"/>
+  <dimension ref="A1:I2179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76840,6 +76840,41 @@
         <v>2315500</v>
       </c>
     </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>2261100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2179"/>
+  <dimension ref="A1:I2180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76875,6 +76875,41 @@
         <v>2261100</v>
       </c>
     </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>5116200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2180"/>
+  <dimension ref="A1:I2181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76910,6 +76910,41 @@
         <v>5116200</v>
       </c>
     </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>3438300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2181"/>
+  <dimension ref="A1:I2182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76945,6 +76945,41 @@
         <v>3438300</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>6189700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2182"/>
+  <dimension ref="A1:I2183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76980,6 +76980,41 @@
         <v>6189700</v>
       </c>
     </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>8486600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2183"/>
+  <dimension ref="A1:I2184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77015,6 +77015,41 @@
         <v>8486600</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>11789400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2184"/>
+  <dimension ref="A1:I2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77050,6 +77050,41 @@
         <v>11789400</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>10443100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2185"/>
+  <dimension ref="A1:I2186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77085,6 +77085,41 @@
         <v>10443100</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>8740500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9385.xlsx
+++ b/data/9385.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2186"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77120,6 +77120,41 @@
         <v>8740500</v>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>LAYHONG</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>5626400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
